--- a/drag coefficient.xlsx
+++ b/drag coefficient.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Bullet Trajectory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tngzj\Desktop\bullet_trajectory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4770D5-2EDA-4731-9BCB-E38BB23DED64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2168BD-9322-4F2B-9CD6-956D88A8A3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="2955" windowWidth="15945" windowHeight="10433" xr2:uid="{60F7147B-47DE-42F8-A238-586B0023E252}"/>
+    <workbookView xWindow="3630" yWindow="315" windowWidth="28800" windowHeight="15345" xr2:uid="{60F7147B-47DE-42F8-A238-586B0023E252}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -404,15 +404,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB17C46-73F9-42DD-8B0E-FDB7C3CE54D0}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -423,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -434,7 +435,7 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F21" si="0">C2+$E$40</f>
+        <f t="shared" ref="F2:F23" si="0">C2+$E$42</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="I2" t="s">
@@ -447,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -471,7 +472,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -495,7 +496,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -519,7 +520,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -543,7 +544,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -567,7 +568,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -591,7 +592,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -615,7 +616,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -639,7 +640,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -663,7 +664,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -687,7 +688,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -711,7 +712,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -735,7 +736,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -759,7 +760,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -769,21 +770,8 @@
       <c r="C16">
         <v>0.12</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0.15100000000000002</v>
-      </c>
-      <c r="I16">
-        <v>0.308</v>
-      </c>
-      <c r="J16">
-        <v>1.5</v>
-      </c>
-      <c r="K16">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -794,20 +782,20 @@
         <v>0.12</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f>C16+$E$42</f>
         <v>0.15100000000000002</v>
       </c>
       <c r="I17">
         <v>0.308</v>
       </c>
       <c r="J17">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K17">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -818,20 +806,20 @@
         <v>0.121</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0.15200000000000002</v>
+        <f>C17+$E$42</f>
+        <v>0.15100000000000002</v>
       </c>
       <c r="I18">
         <v>0.308</v>
       </c>
       <c r="J18">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K18">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -841,21 +829,8 @@
       <c r="C19">
         <v>0.122</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0.15300000000000002</v>
-      </c>
-      <c r="I19">
-        <v>0.308</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>0.29799999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -866,11 +841,20 @@
         <v>0.124</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0.15500000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+        <f>C18+$E$42</f>
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="I20">
+        <v>0.308</v>
+      </c>
+      <c r="J20">
+        <v>1.8</v>
+      </c>
+      <c r="K20">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -881,11 +865,20 @@
         <v>0.126</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0.15700000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+        <f>C19+$E$42</f>
+        <v>0.15300000000000002</v>
+      </c>
+      <c r="I21">
+        <v>0.308</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -896,11 +889,11 @@
         <v>0.13</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:F39" si="1">C22+$E$40</f>
-        <v>0.16100000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+        <f>C20+$E$42</f>
+        <v>0.15500000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -911,11 +904,11 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0.16700000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+        <f>C21+$E$42</f>
+        <v>0.15700000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -926,11 +919,11 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>0.17700000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+        <f>C22+$E$42</f>
+        <v>0.16100000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -941,11 +934,11 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>0.19700000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+        <f>C23+$E$42</f>
+        <v>0.16700000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -956,11 +949,11 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>0.23600000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+        <f>C24+$E$42</f>
+        <v>0.17700000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -971,11 +964,11 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+        <f>C25+$E$42</f>
+        <v>0.19700000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -986,11 +979,11 @@
         <v>0.38</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>0.41100000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+        <f>C26+$E$42</f>
+        <v>0.23600000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1001,11 +994,11 @@
         <v>0.40100000000000002</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
-        <v>0.43200000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+        <f>C27+$E$42</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1016,11 +1009,11 @@
         <v>0.40400000000000003</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>0.43500000000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+        <f>C28+$E$42</f>
+        <v>0.41100000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1031,11 +1024,11 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>0.43400000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+        <f>C29+$E$42</f>
+        <v>0.43200000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1046,11 +1039,11 @@
         <v>0.40100000000000002</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>0.43200000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C30+$E$42</f>
+        <v>0.43500000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1061,11 +1054,11 @@
         <v>0.39800000000000002</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
-        <v>0.42900000000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C31+$E$42</f>
+        <v>0.43400000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1076,11 +1069,11 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
-        <v>0.42600000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C32+$E$42</f>
+        <v>0.43200000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1091,11 +1084,11 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>0.41900000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C33+$E$42</f>
+        <v>0.42900000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1106,11 +1099,11 @@
         <v>0.38100000000000001</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>0.41200000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C34+$E$42</f>
+        <v>0.42600000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1121,11 +1114,11 @@
         <v>0.373</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C35+$E$42</f>
+        <v>0.41900000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1136,11 +1129,11 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>0.39600000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C36+$E$42</f>
+        <v>0.41200000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1151,11 +1144,11 @@
         <v>0.35799999999999998</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>0.38900000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C37+$E$42</f>
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1165,15 +1158,12 @@
       <c r="C40">
         <v>0.34399999999999997</v>
       </c>
-      <c r="E40">
-        <v>3.1000000000000028E-2</v>
-      </c>
       <c r="F40">
-        <f>C40+$E$40</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C38+$E$42</f>
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1184,11 +1174,11 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="F41">
-        <f t="shared" ref="F41:F70" si="2">C41+$E$40</f>
-        <v>0.36800000000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C39+$E$42</f>
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1198,12 +1188,15 @@
       <c r="C42">
         <v>0.33100000000000002</v>
       </c>
+      <c r="E42">
+        <v>3.1000000000000028E-2</v>
+      </c>
       <c r="F42">
-        <f t="shared" si="2"/>
-        <v>0.36200000000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C40+$E$42</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1214,11 +1207,11 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
-        <v>0.35700000000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C41+$E$42</f>
+        <v>0.36800000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1229,11 +1222,11 @@
         <v>0.32</v>
       </c>
       <c r="F44">
-        <f t="shared" si="2"/>
-        <v>0.35100000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C42+$E$42</f>
+        <v>0.36200000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1244,11 +1237,11 @@
         <v>0.316</v>
       </c>
       <c r="F45">
-        <f t="shared" si="2"/>
-        <v>0.34700000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C43+$E$42</f>
+        <v>0.35700000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1259,11 +1252,11 @@
         <v>0.311</v>
       </c>
       <c r="F46">
-        <f t="shared" si="2"/>
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C44+$E$42</f>
+        <v>0.35100000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1274,11 +1267,11 @@
         <v>0.307</v>
       </c>
       <c r="F47">
-        <f t="shared" si="2"/>
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C45+$E$42</f>
+        <v>0.34700000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1289,11 +1282,11 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="F48">
-        <f t="shared" si="2"/>
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C46+$E$42</f>
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1304,11 +1297,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="F49">
-        <f t="shared" si="2"/>
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C47+$E$42</f>
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1319,11 +1312,11 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="F50">
-        <f t="shared" si="2"/>
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C48+$E$42</f>
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1334,11 +1327,11 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="F51">
-        <f t="shared" si="2"/>
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C49+$E$42</f>
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1349,11 +1342,11 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="F52">
-        <f t="shared" si="2"/>
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C50+$E$42</f>
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1364,11 +1357,11 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="F53">
-        <f t="shared" si="2"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C51+$E$42</f>
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1379,11 +1372,11 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="F54">
-        <f t="shared" si="2"/>
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C52+$E$42</f>
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1394,11 +1387,11 @@
         <v>0.28299999999999997</v>
       </c>
       <c r="F55">
-        <f t="shared" si="2"/>
-        <v>0.314</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C53+$E$42</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1409,11 +1402,11 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F56">
-        <f t="shared" si="2"/>
-        <v>0.31100000000000005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C54+$E$42</f>
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1424,11 +1417,11 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="F57">
-        <f t="shared" si="2"/>
-        <v>0.30800000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C55+$E$42</f>
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1439,11 +1432,11 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="F58">
-        <f t="shared" si="2"/>
-        <v>0.30600000000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C56+$E$42</f>
+        <v>0.31100000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1454,11 +1447,11 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="F59">
-        <f t="shared" si="2"/>
-        <v>0.30300000000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C57+$E$42</f>
+        <v>0.30800000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1469,11 +1462,11 @@
         <v>0.26900000000000002</v>
       </c>
       <c r="F60">
-        <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C58+$E$42</f>
+        <v>0.30600000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1484,11 +1477,11 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="F61">
-        <f t="shared" si="2"/>
-        <v>0.29800000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C59+$E$42</f>
+        <v>0.30300000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1499,11 +1492,11 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="F62">
-        <f t="shared" si="2"/>
-        <v>0.29500000000000004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C60+$E$42</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1514,11 +1507,11 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="F63">
-        <f t="shared" si="2"/>
-        <v>0.29200000000000004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C61+$E$42</f>
+        <v>0.29800000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1529,11 +1522,11 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="F64">
-        <f t="shared" si="2"/>
-        <v>0.28900000000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C62+$E$42</f>
+        <v>0.29500000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -1544,11 +1537,11 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="F65">
-        <f t="shared" si="2"/>
-        <v>0.28700000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C63+$E$42</f>
+        <v>0.29200000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -1559,11 +1552,11 @@
         <v>0.253</v>
       </c>
       <c r="F66">
-        <f t="shared" si="2"/>
-        <v>0.28400000000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C64+$E$42</f>
+        <v>0.28900000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1574,11 +1567,11 @@
         <v>0.25</v>
       </c>
       <c r="F67">
-        <f t="shared" si="2"/>
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C65+$E$42</f>
+        <v>0.28700000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -1589,11 +1582,11 @@
         <v>0.247</v>
       </c>
       <c r="F68">
-        <f t="shared" si="2"/>
-        <v>0.27800000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C66+$E$42</f>
+        <v>0.28400000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -1604,11 +1597,11 @@
         <v>0.245</v>
       </c>
       <c r="F69">
-        <f t="shared" si="2"/>
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C67+$E$42</f>
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -1619,11 +1612,11 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+        <f>C68+$E$42</f>
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -1633,8 +1626,12 @@
       <c r="C71">
         <v>0.23599999999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F71">
+        <f>C69+$E$42</f>
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -1644,8 +1641,12 @@
       <c r="C72">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F72">
+        <f>C70+$E$42</f>
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3</v>
       </c>
